--- a/statistiche/bpic11summaryReport.xlsx
+++ b/statistiche/bpic11summaryReport.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6481</v>
+        <v>6690</v>
       </c>
       <c r="D2" t="n">
-        <v>4160</v>
+        <v>4268</v>
       </c>
       <c r="E2" t="n">
-        <v>2321</v>
+        <v>2422</v>
       </c>
       <c r="F2" t="n">
-        <v>4160</v>
+        <v>4268</v>
       </c>
       <c r="G2" t="n">
-        <v>2321</v>
+        <v>2422</v>
       </c>
       <c r="H2" t="n">
-        <v>1.248651537174776</v>
+        <v>1.234881323337352</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="D3" t="n">
-        <v>4613</v>
+        <v>4609</v>
       </c>
       <c r="E3" t="n">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="F3" t="n">
-        <v>4613</v>
+        <v>4609</v>
       </c>
       <c r="G3" t="n">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="H3" t="n">
-        <v>1.386550080349727</v>
+        <v>1.278814262883313</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6481</v>
+        <v>6690</v>
       </c>
       <c r="D4" t="n">
-        <v>4160</v>
+        <v>4268</v>
       </c>
       <c r="E4" t="n">
-        <v>2321</v>
+        <v>2422</v>
       </c>
       <c r="F4" t="n">
-        <v>4160</v>
+        <v>4268</v>
       </c>
       <c r="G4" t="n">
-        <v>2321</v>
+        <v>2422</v>
       </c>
       <c r="H4" t="n">
-        <v>1.29655201531501</v>
+        <v>1.245829480475963</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="D5" t="n">
-        <v>4613</v>
+        <v>4609</v>
       </c>
       <c r="E5" t="n">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="F5" t="n">
-        <v>4613</v>
+        <v>4609</v>
       </c>
       <c r="G5" t="n">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="H5" t="n">
-        <v>1.341449727327535</v>
+        <v>1.370495683050378</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6481</v>
+        <v>6690</v>
       </c>
       <c r="D6" t="n">
-        <v>4160</v>
+        <v>4268</v>
       </c>
       <c r="E6" t="n">
-        <v>2321</v>
+        <v>2422</v>
       </c>
       <c r="F6" t="n">
-        <v>4160</v>
+        <v>4268</v>
       </c>
       <c r="G6" t="n">
-        <v>2321</v>
+        <v>2422</v>
       </c>
       <c r="H6" t="n">
-        <v>1.444801646519484</v>
+        <v>1.552441686159508</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="D7" t="n">
-        <v>4613</v>
+        <v>4609</v>
       </c>
       <c r="E7" t="n">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="F7" t="n">
-        <v>4613</v>
+        <v>4609</v>
       </c>
       <c r="G7" t="n">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="H7" t="n">
-        <v>1.440153905586038</v>
+        <v>1.579913781818015</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6481</v>
+        <v>6690</v>
       </c>
       <c r="D8" t="n">
-        <v>4160</v>
+        <v>4268</v>
       </c>
       <c r="E8" t="n">
-        <v>2321</v>
+        <v>2422</v>
       </c>
       <c r="F8" t="n">
-        <v>4160</v>
+        <v>4268</v>
       </c>
       <c r="G8" t="n">
-        <v>2321</v>
+        <v>2422</v>
       </c>
       <c r="H8" t="n">
-        <v>1.58122491801101</v>
+        <v>1.804815574619913</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="D9" t="n">
-        <v>4613</v>
+        <v>4609</v>
       </c>
       <c r="E9" t="n">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="F9" t="n">
-        <v>4613</v>
+        <v>4609</v>
       </c>
       <c r="G9" t="n">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="H9" t="n">
-        <v>1.49373762562665</v>
+        <v>1.730713422818538</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6481</v>
+        <v>6690</v>
       </c>
       <c r="D10" t="n">
-        <v>4160</v>
+        <v>4268</v>
       </c>
       <c r="E10" t="n">
-        <v>2321</v>
+        <v>2422</v>
       </c>
       <c r="F10" t="n">
-        <v>4160</v>
+        <v>4268</v>
       </c>
       <c r="G10" t="n">
-        <v>2321</v>
+        <v>2422</v>
       </c>
       <c r="H10" t="n">
-        <v>1.761583085324364</v>
+        <v>1.850329288982537</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="D11" t="n">
-        <v>4613</v>
+        <v>4609</v>
       </c>
       <c r="E11" t="n">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="F11" t="n">
-        <v>4613</v>
+        <v>4609</v>
       </c>
       <c r="G11" t="n">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="H11" t="n">
-        <v>1.804734645373514</v>
+        <v>1.626092435031802</v>
       </c>
     </row>
   </sheetData>
